--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H2">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I2">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J2">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>94.24334833220499</v>
+        <v>634.1867503620946</v>
       </c>
       <c r="R2">
-        <v>376.97339332882</v>
+        <v>2536.747001448378</v>
       </c>
       <c r="S2">
-        <v>0.001947497657818109</v>
+        <v>0.01711503042928083</v>
       </c>
       <c r="T2">
-        <v>0.001066446472751142</v>
+        <v>0.01150154527703823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H3">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I3">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J3">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>6520.558356431789</v>
+        <v>8175.46962575664</v>
       </c>
       <c r="R3">
-        <v>39123.35013859074</v>
+        <v>49052.81775453984</v>
       </c>
       <c r="S3">
-        <v>0.1347444923333413</v>
+        <v>0.2206343972632597</v>
       </c>
       <c r="T3">
-        <v>0.1106787892616989</v>
+        <v>0.2224042066662616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H4">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I4">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J4">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>8698.516719036988</v>
+        <v>8785.642330312119</v>
       </c>
       <c r="R4">
-        <v>52191.10031422193</v>
+        <v>52713.85398187272</v>
       </c>
       <c r="S4">
-        <v>0.1797510512583021</v>
+        <v>0.2371013518308552</v>
       </c>
       <c r="T4">
-        <v>0.1476470642864541</v>
+        <v>0.239003250207263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H5">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I5">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J5">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>1398.603116543354</v>
+        <v>1900.221874672889</v>
       </c>
       <c r="R5">
-        <v>5594.412466173414</v>
+        <v>7600.887498691558</v>
       </c>
       <c r="S5">
-        <v>0.02890152293914748</v>
+        <v>0.05128198466594051</v>
       </c>
       <c r="T5">
-        <v>0.01582642580947779</v>
+        <v>0.03446222727846349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H6">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I6">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J6">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>291.9057181113183</v>
+        <v>3048.518104001688</v>
       </c>
       <c r="R6">
-        <v>1751.43430866791</v>
+        <v>18291.10862401013</v>
       </c>
       <c r="S6">
-        <v>0.006032104253359192</v>
+        <v>0.08227147616126063</v>
       </c>
       <c r="T6">
-        <v>0.004954755358835113</v>
+        <v>0.08293141329669881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H7">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I7">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J7">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>6703.083943152888</v>
+        <v>11794.56712244575</v>
       </c>
       <c r="R7">
-        <v>40218.50365891733</v>
+        <v>70767.40273467447</v>
       </c>
       <c r="S7">
-        <v>0.1385163039139125</v>
+        <v>0.3183043087633066</v>
       </c>
       <c r="T7">
-        <v>0.1137769458678193</v>
+        <v>0.3208575731937532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H8">
         <v>0.117076</v>
       </c>
       <c r="I8">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J8">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>0.07879394316533332</v>
+        <v>0.4228938489560001</v>
       </c>
       <c r="R8">
-        <v>0.4727636589919999</v>
+        <v>2.537363093736</v>
       </c>
       <c r="S8">
-        <v>1.628242443422422E-06</v>
+        <v>1.141279140427504E-05</v>
       </c>
       <c r="T8">
-        <v>1.337434273875045E-06</v>
+        <v>1.150433862353154E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H9">
         <v>0.117076</v>
       </c>
       <c r="I9">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J9">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
-        <v>5.451636785355554</v>
+        <v>5.451636785355555</v>
       </c>
       <c r="R9">
-        <v>49.06473106819999</v>
+        <v>49.0647310682</v>
       </c>
       <c r="S9">
-        <v>0.0001126556946314153</v>
+        <v>0.0001471253213938541</v>
       </c>
       <c r="T9">
-        <v>0.0001388026590474097</v>
+        <v>0.0002224582213221905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H10">
         <v>0.117076</v>
       </c>
       <c r="I10">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J10">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>7.272560282626222</v>
+        <v>5.858517382293334</v>
       </c>
       <c r="R10">
-        <v>65.453042543636</v>
+        <v>52.72665644064001</v>
       </c>
       <c r="S10">
-        <v>0.0001502842839033094</v>
+        <v>0.0001581059572928192</v>
       </c>
       <c r="T10">
-        <v>0.0001851647028325026</v>
+        <v>0.0002390612962241047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H11">
         <v>0.117076</v>
       </c>
       <c r="I11">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J11">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>1.169328726387333</v>
+        <v>1.267122250649333</v>
       </c>
       <c r="R11">
-        <v>7.015972358323999</v>
+        <v>7.602733503896001</v>
       </c>
       <c r="S11">
-        <v>2.416366774057595E-05</v>
+        <v>3.419629291387729E-05</v>
       </c>
       <c r="T11">
-        <v>1.984797629451724E-05</v>
+        <v>3.447059701830291E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H12">
         <v>0.117076</v>
       </c>
       <c r="I12">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J12">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>0.2440533254551111</v>
+        <v>2.032838992421778</v>
       </c>
       <c r="R12">
-        <v>2.196479929096</v>
+        <v>18.295550931796</v>
       </c>
       <c r="S12">
-        <v>5.043255445797139E-06</v>
+        <v>5.486097146189581E-05</v>
       </c>
       <c r="T12">
-        <v>6.213776129313971E-06</v>
+        <v>8.295155460527414E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H13">
         <v>0.117076</v>
       </c>
       <c r="I13">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J13">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>5.60424077238311</v>
+        <v>7.864954422862223</v>
       </c>
       <c r="R13">
-        <v>50.438166951448</v>
+        <v>70.78458980576001</v>
       </c>
       <c r="S13">
-        <v>0.0001158091894145406</v>
+        <v>0.0002122544095967594</v>
       </c>
       <c r="T13">
-        <v>0.000142688068148317</v>
+        <v>0.0003209354989294128</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H14">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I14">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J14">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>8.508839983217332</v>
+        <v>4.594655916917</v>
       </c>
       <c r="R14">
-        <v>51.053039899304</v>
+        <v>27.56793550150201</v>
       </c>
       <c r="S14">
-        <v>0.0001758314643029527</v>
+        <v>0.000123997664387045</v>
       </c>
       <c r="T14">
-        <v>0.0001444275253567973</v>
+        <v>0.0001249923063608467</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H15">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I15">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J15">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>588.7140964106554</v>
+        <v>59.23092822123888</v>
       </c>
       <c r="R15">
-        <v>5298.426867695899</v>
+        <v>533.0783539911499</v>
       </c>
       <c r="S15">
-        <v>0.0121655198395839</v>
+        <v>0.001598486783715126</v>
       </c>
       <c r="T15">
-        <v>0.01498909138994715</v>
+        <v>0.002416963465862991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H16">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I16">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J16">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>785.3528993126203</v>
+        <v>63.65160340205334</v>
       </c>
       <c r="R16">
-        <v>7068.176093813582</v>
+        <v>572.86443061848</v>
       </c>
       <c r="S16">
-        <v>0.01622897487237659</v>
+        <v>0.001717789166166994</v>
       </c>
       <c r="T16">
-        <v>0.01999565910333749</v>
+        <v>0.002597352507995958</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H17">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I17">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J17">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>126.2740589049063</v>
+        <v>13.76702631352033</v>
       </c>
       <c r="R17">
-        <v>757.644353429438</v>
+        <v>82.60215788112201</v>
       </c>
       <c r="S17">
-        <v>0.002609398310994171</v>
+        <v>0.0003715357883810712</v>
       </c>
       <c r="T17">
-        <v>0.002143353251484958</v>
+        <v>0.0003745160468538422</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H18">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I18">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J18">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>26.35495331553911</v>
+        <v>22.08638344522744</v>
       </c>
       <c r="R18">
-        <v>237.194579839852</v>
+        <v>198.777451007047</v>
       </c>
       <c r="S18">
-        <v>0.0005446136068191749</v>
+        <v>0.0005960533305402619</v>
       </c>
       <c r="T18">
-        <v>0.0006710163833903678</v>
+        <v>0.000901251820345681</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H19">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I19">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J19">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>605.1935725512751</v>
+        <v>85.45113499403556</v>
       </c>
       <c r="R19">
-        <v>5446.742152961476</v>
+        <v>769.06021494632</v>
       </c>
       <c r="S19">
-        <v>0.01250606102104529</v>
+        <v>0.002306101120536618</v>
       </c>
       <c r="T19">
-        <v>0.01540867090305244</v>
+        <v>0.003486899118407748</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H20">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I20">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J20">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>4.429971666708999</v>
+        <v>26.8008001500495</v>
       </c>
       <c r="R20">
-        <v>17.719886666836</v>
+        <v>107.203200600198</v>
       </c>
       <c r="S20">
-        <v>9.154343089238698E-05</v>
+        <v>0.00072328302323452</v>
       </c>
       <c r="T20">
-        <v>5.012903023878351E-05</v>
+        <v>0.0004860565380948889</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H21">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I21">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J21">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>306.5032098423916</v>
+        <v>345.4962240185583</v>
       </c>
       <c r="R21">
-        <v>1839.01925905435</v>
+        <v>2072.97734411135</v>
       </c>
       <c r="S21">
-        <v>0.00633375504844846</v>
+        <v>0.009324033313378229</v>
       </c>
       <c r="T21">
-        <v>0.005202530568063817</v>
+        <v>0.00939882564873757</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H22">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I22">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J22">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>408.8796004137772</v>
+        <v>371.2821880149201</v>
       </c>
       <c r="R22">
-        <v>2453.277602482663</v>
+        <v>2227.69312808952</v>
       </c>
       <c r="S22">
-        <v>0.00844931847421772</v>
+        <v>0.01001992858112719</v>
       </c>
       <c r="T22">
-        <v>0.006940249078971265</v>
+        <v>0.01010030301068237</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H23">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I23">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J23">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>65.74227559719175</v>
+        <v>80.3035804118945</v>
       </c>
       <c r="R23">
-        <v>262.969102388767</v>
+        <v>321.214321647578</v>
       </c>
       <c r="S23">
-        <v>0.001358535429936671</v>
+        <v>0.002167182177087506</v>
       </c>
       <c r="T23">
-        <v>0.0007439317380163618</v>
+        <v>0.001456377424297083</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H24">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I24">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J24">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>13.72122365628633</v>
+        <v>128.8307023325672</v>
       </c>
       <c r="R24">
-        <v>82.32734193771799</v>
+        <v>772.9842139954029</v>
       </c>
       <c r="S24">
-        <v>0.0002835430977984954</v>
+        <v>0.00347680141439186</v>
       </c>
       <c r="T24">
-        <v>0.000232901591927136</v>
+        <v>0.003504690428579521</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H25">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I25">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J25">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>315.0829472130723</v>
+        <v>498.4396727376134</v>
       </c>
       <c r="R25">
-        <v>1890.497683278434</v>
+        <v>2990.63803642568</v>
       </c>
       <c r="S25">
-        <v>0.006511051576317953</v>
+        <v>0.01345157425820437</v>
       </c>
       <c r="T25">
-        <v>0.005348161492972821</v>
+        <v>0.01355947548712718</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H26">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I26">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J26">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>73.15008705614999</v>
+        <v>5.979167668562001</v>
       </c>
       <c r="R26">
-        <v>438.9005223368999</v>
+        <v>35.875006011372</v>
       </c>
       <c r="S26">
-        <v>0.001511614620364261</v>
+        <v>0.0001613619908186074</v>
       </c>
       <c r="T26">
-        <v>0.001241636471480485</v>
+        <v>0.0001626563491425143</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H27">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I27">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J27">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>5061.146700203749</v>
+        <v>77.07903647265555</v>
       </c>
       <c r="R27">
-        <v>45550.32030183374</v>
+        <v>693.7113282539</v>
       </c>
       <c r="S27">
-        <v>0.1045863874634052</v>
+        <v>0.002080160227150649</v>
       </c>
       <c r="T27">
-        <v>0.1288604959347978</v>
+        <v>0.003145269215475969</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H28">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I28">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J28">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>6751.641007214675</v>
+        <v>82.83179763525334</v>
       </c>
       <c r="R28">
-        <v>60764.76906493207</v>
+        <v>745.48617871728</v>
       </c>
       <c r="S28">
-        <v>0.1395197144484949</v>
+        <v>0.002235412102554906</v>
       </c>
       <c r="T28">
-        <v>0.1719017171599424</v>
+        <v>0.003380015048023105</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H29">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I29">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J29">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>1085.571995718112</v>
+        <v>17.91545659011533</v>
       </c>
       <c r="R29">
-        <v>6513.431974308674</v>
+        <v>107.492739540692</v>
       </c>
       <c r="S29">
-        <v>0.02243287145955004</v>
+        <v>0.0004834909977529714</v>
       </c>
       <c r="T29">
-        <v>0.01842630455472771</v>
+        <v>0.0004873693001605013</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H30">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I30">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J30">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>226.57226286955</v>
+        <v>28.74169300141578</v>
       </c>
       <c r="R30">
-        <v>2039.15036582595</v>
+        <v>258.675237012742</v>
       </c>
       <c r="S30">
-        <v>0.004682016917624872</v>
+        <v>0.0007756626104651597</v>
       </c>
       <c r="T30">
-        <v>0.005768695492913537</v>
+        <v>0.001172826832495298</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H31">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I31">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J31">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>5202.819961976649</v>
+        <v>111.2002014595022</v>
       </c>
       <c r="R31">
-        <v>46825.37965778985</v>
+        <v>1000.80181313552</v>
       </c>
       <c r="S31">
-        <v>0.1075140035802011</v>
+        <v>0.003001000621086602</v>
       </c>
       <c r="T31">
-        <v>0.1324676007776631</v>
+        <v>0.004537609529270344</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H32">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I32">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J32">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>11.96434231705533</v>
+        <v>12.358992907644</v>
       </c>
       <c r="R32">
-        <v>71.786053902332</v>
+        <v>74.15395744586401</v>
       </c>
       <c r="S32">
-        <v>0.0002472379117692814</v>
+        <v>0.0003335366744398575</v>
       </c>
       <c r="T32">
-        <v>0.0002030806028532851</v>
+        <v>0.0003362121246416014</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H33">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I33">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J33">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>827.7952094792721</v>
+        <v>159.3230559668666</v>
       </c>
       <c r="R33">
-        <v>7450.156885313449</v>
+        <v>1433.9075037018</v>
       </c>
       <c r="S33">
-        <v>0.01710602668669227</v>
+        <v>0.004299709745437024</v>
       </c>
       <c r="T33">
-        <v>0.0210762713559863</v>
+        <v>0.006501299525532017</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H34">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I34">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J34">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>1104.290472684998</v>
+        <v>171.21406460704</v>
       </c>
       <c r="R34">
-        <v>9938.614254164982</v>
+        <v>1540.92658146336</v>
       </c>
       <c r="S34">
-        <v>0.02281968061580404</v>
+        <v>0.004620616756810583</v>
       </c>
       <c r="T34">
-        <v>0.02811604294349589</v>
+        <v>0.006986521255439917</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H35">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I35">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J35">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>177.5548805104048</v>
+        <v>37.03140858528401</v>
       </c>
       <c r="R35">
-        <v>1065.329283062429</v>
+        <v>222.188451511704</v>
       </c>
       <c r="S35">
-        <v>0.003669094106347923</v>
+        <v>0.0009993802053013517</v>
       </c>
       <c r="T35">
-        <v>0.00301378472949532</v>
+        <v>0.001007396690973828</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H36">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I36">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J36">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>37.05789318391844</v>
+        <v>59.40933582208933</v>
       </c>
       <c r="R36">
-        <v>333.521038655266</v>
+        <v>534.684022398804</v>
       </c>
       <c r="S36">
-        <v>0.0007657851875652506</v>
+        <v>0.001603301535072872</v>
       </c>
       <c r="T36">
-        <v>0.0009435210589304303</v>
+        <v>0.00242424352488346</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H37">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I37">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J37">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>850.9671217659064</v>
+        <v>229.8518083700267</v>
       </c>
       <c r="R37">
-        <v>7658.704095893158</v>
+        <v>2068.66627533024</v>
       </c>
       <c r="S37">
-        <v>0.01758486413998727</v>
+        <v>0.006203095053991787</v>
       </c>
       <c r="T37">
-        <v>0.02166624518719201</v>
+        <v>0.009379279374414568</v>
       </c>
     </row>
   </sheetData>
